--- a/ESERCIZIO 2.xlsx
+++ b/ESERCIZIO 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\EPICODE\01.EXCEL\00 ESERCITAZIONI-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B3A26-7743-4C53-9694-C91E470CA450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB629EA3-E4F1-4C4D-94C1-CEFEA96E180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <definedName name="import">LOGICA!$D$2:$D$80</definedName>
     <definedName name="IMPORTO">#REF!</definedName>
     <definedName name="IO_B">Assoluti_Iva!$A$66:$C$80</definedName>
+    <definedName name="IVA">Assoluti_Iva!$I$2</definedName>
     <definedName name="IVATOT">Assoluti_Iva!#REF!</definedName>
     <definedName name="MAIN_B">Assoluti_Iva!$A$23:$C$38</definedName>
     <definedName name="MAST">Assoluti_Iva!$A$120:$C$130</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="211">
   <si>
     <t>Data</t>
   </si>
@@ -714,7 +715,7 @@
     <numFmt numFmtId="168" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-[$€]\ * #,##0.00_-;\-[$€]\ * #,##0.00_-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€-803]_-;\-* #,##0.00\ [$€-803]_-;_-* &quot;-&quot;??\ [$€-803]_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1010,7 +1011,7 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1038,7 +1039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1069,7 +1069,14 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1381,7 +1388,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1399,30 +1406,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="H3" s="30" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="H3" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f>AVERAGE(IMPONIBILE)</f>
         <v>519442.42424242425</v>
       </c>
@@ -1446,10 +1453,10 @@
       <c r="F4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f>SUM(IMPONIBILE)</f>
         <v>171416000</v>
       </c>
@@ -1464,6 +1471,14 @@
       <c r="C5" s="9">
         <v>281000</v>
       </c>
+      <c r="D5" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E5" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F5" s="7" t="b">
         <f>AND(B5="MANUALI",C5&lt;1000000)</f>
         <v>0</v>
@@ -1479,8 +1494,13 @@
       <c r="C6" s="9">
         <v>323000</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>202</v>
+      <c r="D6" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E6" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F6" s="7" t="b">
         <f t="shared" ref="F6:F69" si="0">AND(B6="MANUALI",C6&lt;1000000)</f>
@@ -1497,8 +1517,12 @@
       <c r="C7" s="9">
         <v>344000</v>
       </c>
-      <c r="E7" s="27">
-        <f>C7*$I$2</f>
+      <c r="D7" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E7" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>68800</v>
       </c>
       <c r="F7" s="7" t="b">
@@ -1516,6 +1540,14 @@
       <c r="C8" s="9">
         <v>361000</v>
       </c>
+      <c r="D8" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E8" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F8" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1531,6 +1563,14 @@
       <c r="C9" s="9">
         <v>521000</v>
       </c>
+      <c r="D9" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E9" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F9" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1546,6 +1586,14 @@
       <c r="C10" s="9">
         <v>527000</v>
       </c>
+      <c r="D10" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E10" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F10" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1561,6 +1609,14 @@
       <c r="C11" s="10">
         <v>626000</v>
       </c>
+      <c r="D11" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E11" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F11" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1576,8 +1632,12 @@
       <c r="C12" s="9">
         <v>656000</v>
       </c>
-      <c r="E12" s="27">
-        <f>C12*$I$2</f>
+      <c r="D12" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E12" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>131200</v>
       </c>
       <c r="F12" s="7" t="b">
@@ -1595,6 +1655,14 @@
       <c r="C13" s="9">
         <v>666000</v>
       </c>
+      <c r="D13" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E13" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F13" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1610,6 +1678,14 @@
       <c r="C14" s="10">
         <v>882000</v>
       </c>
+      <c r="D14" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E14" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F14" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1625,6 +1701,14 @@
       <c r="C15" s="9">
         <v>1108000</v>
       </c>
+      <c r="D15" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E15" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F15" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1640,6 +1724,14 @@
       <c r="C16" s="9">
         <v>1316000</v>
       </c>
+      <c r="D16" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E16" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F16" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1655,6 +1747,14 @@
       <c r="C17" s="9">
         <v>1594000</v>
       </c>
+      <c r="D17" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E17" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F17" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1670,6 +1770,14 @@
       <c r="C18" s="9">
         <v>2719000</v>
       </c>
+      <c r="D18" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E18" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F18" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1685,6 +1793,14 @@
       <c r="C19" s="10">
         <v>0</v>
       </c>
+      <c r="D19" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E19" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F19" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1700,6 +1816,14 @@
       <c r="C20" s="9">
         <v>4092000</v>
       </c>
+      <c r="D20" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E20" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F20" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1715,6 +1839,14 @@
       <c r="C21" s="9">
         <v>13859000</v>
       </c>
+      <c r="D21" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E21" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F21" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1730,6 +1862,14 @@
       <c r="C22" s="10">
         <v>0</v>
       </c>
+      <c r="D22" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E22" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F22" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1745,6 +1885,14 @@
       <c r="C23" s="9">
         <v>167000</v>
       </c>
+      <c r="D23" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E23" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F23" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1760,6 +1908,14 @@
       <c r="C24" s="9">
         <v>202000</v>
       </c>
+      <c r="D24" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E24" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F24" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1775,6 +1931,14 @@
       <c r="C25" s="9">
         <v>203000</v>
       </c>
+      <c r="D25" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E25" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F25" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1790,6 +1954,14 @@
       <c r="C26" s="9">
         <v>234000</v>
       </c>
+      <c r="D26" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E26" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F26" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1805,6 +1977,14 @@
       <c r="C27" s="9">
         <v>252000</v>
       </c>
+      <c r="D27" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E27" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F27" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1820,6 +2000,14 @@
       <c r="C28" s="9">
         <v>259000</v>
       </c>
+      <c r="D28" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E28" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F28" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1835,6 +2023,14 @@
       <c r="C29" s="9">
         <v>269000</v>
       </c>
+      <c r="D29" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E29" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F29" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1850,6 +2046,14 @@
       <c r="C30" s="9">
         <v>271000</v>
       </c>
+      <c r="D30" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E30" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F30" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1865,6 +2069,14 @@
       <c r="C31" s="9">
         <v>292000</v>
       </c>
+      <c r="D31" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E31" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F31" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1880,6 +2092,14 @@
       <c r="C32" s="9">
         <v>293000</v>
       </c>
+      <c r="D32" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E32" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F32" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1895,6 +2115,14 @@
       <c r="C33" s="9">
         <v>307000</v>
       </c>
+      <c r="D33" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E33" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F33" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1910,6 +2138,14 @@
       <c r="C34" s="9">
         <v>440000</v>
       </c>
+      <c r="D34" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E34" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F34" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1925,6 +2161,14 @@
       <c r="C35" s="9">
         <v>487000</v>
       </c>
+      <c r="D35" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E35" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F35" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1940,6 +2184,14 @@
       <c r="C36" s="9">
         <v>566000</v>
       </c>
+      <c r="D36" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E36" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F36" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1955,6 +2207,14 @@
       <c r="C37" s="9">
         <v>802000</v>
       </c>
+      <c r="D37" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E37" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F37" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1970,6 +2230,14 @@
       <c r="C38" s="9">
         <v>1579000</v>
       </c>
+      <c r="D38" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E38" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F38" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1985,6 +2253,14 @@
       <c r="C39" s="10">
         <v>0</v>
       </c>
+      <c r="D39" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E39" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F39" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2000,6 +2276,14 @@
       <c r="C40" s="9">
         <v>70000</v>
       </c>
+      <c r="D40" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E40" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F40" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2015,6 +2299,14 @@
       <c r="C41" s="9">
         <v>104000</v>
       </c>
+      <c r="D41" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E41" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F41" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2030,6 +2322,14 @@
       <c r="C42" s="9">
         <v>127000</v>
       </c>
+      <c r="D42" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E42" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F42" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2045,6 +2345,14 @@
       <c r="C43" s="9">
         <v>162000</v>
       </c>
+      <c r="D43" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E43" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F43" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2060,6 +2368,14 @@
       <c r="C44" s="9">
         <v>179000</v>
       </c>
+      <c r="D44" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E44" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F44" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2075,6 +2391,14 @@
       <c r="C45" s="9">
         <v>186000</v>
       </c>
+      <c r="D45" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E45" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F45" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2090,6 +2414,14 @@
       <c r="C46" s="9">
         <v>186000</v>
       </c>
+      <c r="D46" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E46" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F46" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2105,6 +2437,14 @@
       <c r="C47" s="9">
         <v>203000</v>
       </c>
+      <c r="D47" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E47" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F47" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2120,6 +2460,14 @@
       <c r="C48" s="9">
         <v>212000</v>
       </c>
+      <c r="D48" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E48" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F48" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2135,6 +2483,14 @@
       <c r="C49" s="9">
         <v>222000</v>
       </c>
+      <c r="D49" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E49" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F49" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2150,6 +2506,14 @@
       <c r="C50" s="9">
         <v>245000</v>
       </c>
+      <c r="D50" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E50" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F50" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2165,6 +2529,14 @@
       <c r="C51" s="9">
         <v>251000</v>
       </c>
+      <c r="D51" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E51" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F51" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2180,6 +2552,14 @@
       <c r="C52" s="9">
         <v>257000</v>
       </c>
+      <c r="D52" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E52" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F52" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2195,6 +2575,14 @@
       <c r="C53" s="9">
         <v>269000</v>
       </c>
+      <c r="D53" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E53" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F53" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2210,6 +2598,14 @@
       <c r="C54" s="9">
         <v>314000</v>
       </c>
+      <c r="D54" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E54" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F54" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2225,6 +2621,14 @@
       <c r="C55" s="9">
         <v>325000</v>
       </c>
+      <c r="D55" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E55" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F55" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2240,8 +2644,13 @@
       <c r="C56" s="9">
         <v>347000</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>202</v>
+      <c r="D56" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E56" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F56" s="7" t="b">
         <f t="shared" si="0"/>
@@ -2258,8 +2667,13 @@
       <c r="C57" s="9">
         <v>369000</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>202</v>
+      <c r="D57" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E57" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F57" s="7" t="b">
         <f t="shared" si="0"/>
@@ -2276,8 +2690,13 @@
       <c r="C58" s="9">
         <v>402000</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>202</v>
+      <c r="D58" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E58" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F58" s="7" t="b">
         <f t="shared" si="0"/>
@@ -2294,6 +2713,14 @@
       <c r="C59" s="9">
         <v>471000</v>
       </c>
+      <c r="D59" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E59" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F59" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2309,6 +2736,14 @@
       <c r="C60" s="9">
         <v>476000</v>
       </c>
+      <c r="D60" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E60" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F60" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2324,6 +2759,14 @@
       <c r="C61" s="9">
         <v>492000</v>
       </c>
+      <c r="D61" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E61" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F61" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2339,6 +2782,14 @@
       <c r="C62" s="9">
         <v>531000</v>
       </c>
+      <c r="D62" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E62" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F62" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2354,8 +2805,13 @@
       <c r="C63" s="9">
         <v>552000</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>202</v>
+      <c r="D63" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E63" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F63" s="7" t="b">
         <f t="shared" si="0"/>
@@ -2372,6 +2828,14 @@
       <c r="C64" s="9">
         <v>1487000</v>
       </c>
+      <c r="D64" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E64" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F64" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2387,6 +2851,14 @@
       <c r="C65" s="10">
         <v>0</v>
       </c>
+      <c r="D65" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E65" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F65" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2402,6 +2874,14 @@
       <c r="C66" s="9">
         <v>101000</v>
       </c>
+      <c r="D66" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E66" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F66" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2417,6 +2897,14 @@
       <c r="C67" s="9">
         <v>38000</v>
       </c>
+      <c r="D67" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E67" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F67" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2432,6 +2920,14 @@
       <c r="C68" s="9">
         <v>137000</v>
       </c>
+      <c r="D68" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E68" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F68" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2447,6 +2943,14 @@
       <c r="C69" s="9">
         <v>222000</v>
       </c>
+      <c r="D69" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E69" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F69" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2462,6 +2966,14 @@
       <c r="C70" s="9">
         <v>501000</v>
       </c>
+      <c r="D70" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E70" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F70" s="7" t="b">
         <f t="shared" ref="F70:F133" si="1">AND(B70="MANUALI",C70&lt;1000000)</f>
         <v>0</v>
@@ -2477,6 +2989,14 @@
       <c r="C71" s="9">
         <v>428000</v>
       </c>
+      <c r="D71" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E71" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F71" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2492,6 +3012,14 @@
       <c r="C72" s="9">
         <v>561000</v>
       </c>
+      <c r="D72" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E72" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F72" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2507,6 +3035,14 @@
       <c r="C73" s="9">
         <v>1578000</v>
       </c>
+      <c r="D73" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E73" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F73" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2522,6 +3058,14 @@
       <c r="C74" s="9">
         <v>34000</v>
       </c>
+      <c r="D74" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E74" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F74" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2537,6 +3081,14 @@
       <c r="C75" s="9">
         <v>20000</v>
       </c>
+      <c r="D75" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E75" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F75" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2552,6 +3104,14 @@
       <c r="C76" s="9">
         <v>23000</v>
       </c>
+      <c r="D76" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E76" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F76" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2567,6 +3127,14 @@
       <c r="C77" s="9">
         <v>98000</v>
       </c>
+      <c r="D77" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E77" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F77" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2582,6 +3150,14 @@
       <c r="C78" s="9">
         <v>251000</v>
       </c>
+      <c r="D78" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E78" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F78" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2597,6 +3173,14 @@
       <c r="C79" s="9">
         <v>15000</v>
       </c>
+      <c r="D79" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E79" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F79" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2612,6 +3196,14 @@
       <c r="C80" s="9">
         <v>14000</v>
       </c>
+      <c r="D80" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E80" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F80" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2627,6 +3219,14 @@
       <c r="C81" s="10">
         <v>0</v>
       </c>
+      <c r="D81" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E81" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F81" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2642,6 +3242,14 @@
       <c r="C82" s="9">
         <v>399000</v>
       </c>
+      <c r="D82" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E82" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F82" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2657,6 +3265,14 @@
       <c r="C83" s="9">
         <v>259000</v>
       </c>
+      <c r="D83" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E83" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F83" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2672,8 +3288,13 @@
       <c r="C84" s="9">
         <v>324000</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>202</v>
+      <c r="D84" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E84" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F84" s="7" t="b">
         <f t="shared" si="1"/>
@@ -2690,8 +3311,13 @@
       <c r="C85" s="9">
         <v>378000</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>202</v>
+      <c r="D85" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E85" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F85" s="7" t="b">
         <f t="shared" si="1"/>
@@ -2708,8 +3334,12 @@
       <c r="C86" s="9">
         <v>469000</v>
       </c>
-      <c r="E86" s="27">
-        <f>C86*$I$2</f>
+      <c r="D86" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E86" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>93800</v>
       </c>
       <c r="F86" s="7" t="b">
@@ -2727,6 +3357,14 @@
       <c r="C87" s="9">
         <v>556000</v>
       </c>
+      <c r="D87" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E87" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F87" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2742,6 +3380,14 @@
       <c r="C88" s="9">
         <v>476000</v>
       </c>
+      <c r="D88" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E88" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F88" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2757,6 +3403,14 @@
       <c r="C89" s="9">
         <v>477000</v>
       </c>
+      <c r="D89" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E89" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F89" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2772,6 +3426,14 @@
       <c r="C90" s="10">
         <v>556000</v>
       </c>
+      <c r="D90" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E90" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F90" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2787,8 +3449,12 @@
       <c r="C91" s="9">
         <v>695000</v>
       </c>
-      <c r="E91" s="27">
-        <f>C91*$I$2</f>
+      <c r="D91" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E91" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>139000</v>
       </c>
       <c r="F91" s="7" t="b">
@@ -2806,6 +3472,14 @@
       <c r="C92" s="9">
         <v>1279000</v>
       </c>
+      <c r="D92" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E92" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F92" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2821,6 +3495,14 @@
       <c r="C93" s="10">
         <v>35000</v>
       </c>
+      <c r="D93" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E93" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F93" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2836,6 +3518,14 @@
       <c r="C94" s="9">
         <v>175000</v>
       </c>
+      <c r="D94" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E94" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F94" s="7" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2851,6 +3541,14 @@
       <c r="C95" s="9">
         <v>272000</v>
       </c>
+      <c r="D95" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E95" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F95" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2866,6 +3564,14 @@
       <c r="C96" s="9">
         <v>198000</v>
       </c>
+      <c r="D96" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E96" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F96" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2881,6 +3587,14 @@
       <c r="C97" s="9">
         <v>290000</v>
       </c>
+      <c r="D97" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E97" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F97" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2896,6 +3610,14 @@
       <c r="C98" s="9">
         <v>589000</v>
       </c>
+      <c r="D98" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E98" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F98" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2911,6 +3633,14 @@
       <c r="C99" s="9">
         <v>743000</v>
       </c>
+      <c r="D99" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E99" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F99" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2926,6 +3656,14 @@
       <c r="C100" s="9">
         <v>271000</v>
       </c>
+      <c r="D100" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E100" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F100" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2941,8 +3679,13 @@
       <c r="C101" s="9">
         <v>632000</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>202</v>
+      <c r="D101" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E101" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F101" s="7" t="b">
         <f t="shared" si="1"/>
@@ -2959,6 +3702,14 @@
       <c r="C102" s="9">
         <v>90000</v>
       </c>
+      <c r="D102" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E102" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F102" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2974,6 +3725,14 @@
       <c r="C103" s="9">
         <v>4000</v>
       </c>
+      <c r="D103" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E103" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F103" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2989,6 +3748,14 @@
       <c r="C104" s="9">
         <v>5000</v>
       </c>
+      <c r="D104" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E104" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F104" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3004,6 +3771,14 @@
       <c r="C105" s="9">
         <v>41000</v>
       </c>
+      <c r="D105" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E105" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F105" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3019,6 +3794,14 @@
       <c r="C106" s="10">
         <v>0</v>
       </c>
+      <c r="D106" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E106" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F106" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3034,8 +3817,13 @@
       <c r="C107" s="9">
         <v>737000</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>202</v>
+      <c r="D107" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E107" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F107" s="7" t="b">
         <f t="shared" si="1"/>
@@ -3052,6 +3840,14 @@
       <c r="C108" s="9">
         <v>910000</v>
       </c>
+      <c r="D108" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E108" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F108" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3067,6 +3863,14 @@
       <c r="C109" s="9">
         <v>241000</v>
       </c>
+      <c r="D109" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E109" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F109" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3082,6 +3886,14 @@
       <c r="C110" s="10">
         <v>0</v>
       </c>
+      <c r="D110" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E110" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F110" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3097,6 +3909,14 @@
       <c r="C111" s="9">
         <v>112000</v>
       </c>
+      <c r="D111" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E111" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F111" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3112,6 +3932,14 @@
       <c r="C112" s="9">
         <v>113000</v>
       </c>
+      <c r="D112" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E112" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F112" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3127,6 +3955,14 @@
       <c r="C113" s="9">
         <v>121000</v>
       </c>
+      <c r="D113" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E113" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F113" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3142,6 +3978,14 @@
       <c r="C114" s="9">
         <v>160000</v>
       </c>
+      <c r="D114" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E114" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F114" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3157,6 +4001,14 @@
       <c r="C115" s="9">
         <v>195000</v>
       </c>
+      <c r="D115" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E115" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F115" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3172,6 +4024,14 @@
       <c r="C116" s="9">
         <v>215000</v>
       </c>
+      <c r="D116" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E116" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F116" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3187,6 +4047,14 @@
       <c r="C117" s="9">
         <v>321000</v>
       </c>
+      <c r="D117" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E117" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F117" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3202,6 +4070,14 @@
       <c r="C118" s="9">
         <v>614000</v>
       </c>
+      <c r="D118" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E118" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F118" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3217,6 +4093,14 @@
       <c r="C119" s="10">
         <v>0</v>
       </c>
+      <c r="D119" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E119" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F119" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3232,6 +4116,14 @@
       <c r="C120" s="9">
         <v>30000</v>
       </c>
+      <c r="D120" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E120" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F120" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3247,6 +4139,14 @@
       <c r="C121" s="9">
         <v>34000</v>
       </c>
+      <c r="D121" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E121" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F121" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3262,6 +4162,14 @@
       <c r="C122" s="9">
         <v>35000</v>
       </c>
+      <c r="D122" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E122" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F122" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3277,6 +4185,14 @@
       <c r="C123" s="9">
         <v>77000</v>
       </c>
+      <c r="D123" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E123" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F123" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3292,6 +4208,14 @@
       <c r="C124" s="9">
         <v>723000</v>
       </c>
+      <c r="D124" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E124" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F124" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3307,8 +4231,13 @@
       <c r="C125" s="9">
         <v>742000</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>202</v>
+      <c r="D125" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E125" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F125" s="7" t="b">
         <f t="shared" si="1"/>
@@ -3325,6 +4254,14 @@
       <c r="C126" s="9">
         <v>778000</v>
       </c>
+      <c r="D126" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E126" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F126" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3340,6 +4277,14 @@
       <c r="C127" s="9">
         <v>878000</v>
       </c>
+      <c r="D127" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E127" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F127" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3355,6 +4300,14 @@
       <c r="C128" s="9">
         <v>883000</v>
       </c>
+      <c r="D128" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E128" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F128" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3370,6 +4323,14 @@
       <c r="C129" s="9">
         <v>913000</v>
       </c>
+      <c r="D129" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E129" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F129" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3385,6 +4346,14 @@
       <c r="C130" s="9">
         <v>1125000</v>
       </c>
+      <c r="D130" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E130" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F130" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3400,6 +4369,14 @@
       <c r="C131" s="10">
         <v>0</v>
       </c>
+      <c r="D131" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E131" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F131" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3415,6 +4392,14 @@
       <c r="C132" s="9">
         <v>33000</v>
       </c>
+      <c r="D132" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E132" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F132" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3430,6 +4415,14 @@
       <c r="C133" s="9">
         <v>52000</v>
       </c>
+      <c r="D133" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E133" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F133" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3445,6 +4438,14 @@
       <c r="C134" s="9">
         <v>97000</v>
       </c>
+      <c r="D134" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E134" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F134" s="7" t="b">
         <f t="shared" ref="F134:F197" si="2">AND(B134="MANUALI",C134&lt;1000000)</f>
         <v>0</v>
@@ -3460,6 +4461,14 @@
       <c r="C135" s="10">
         <v>0</v>
       </c>
+      <c r="D135" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E135" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F135" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3475,6 +4484,14 @@
       <c r="C136" s="9">
         <v>131000</v>
       </c>
+      <c r="D136" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E136" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F136" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3490,6 +4507,14 @@
       <c r="C137" s="9">
         <v>169000</v>
       </c>
+      <c r="D137" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E137" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F137" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3505,6 +4530,14 @@
       <c r="C138" s="9">
         <v>190000</v>
       </c>
+      <c r="D138" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E138" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F138" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3520,6 +4553,14 @@
       <c r="C139" s="9">
         <v>191000</v>
       </c>
+      <c r="D139" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E139" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F139" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3535,6 +4576,14 @@
       <c r="C140" s="9">
         <v>197000</v>
       </c>
+      <c r="D140" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E140" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F140" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3550,6 +4599,14 @@
       <c r="C141" s="9">
         <v>201000</v>
       </c>
+      <c r="D141" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E141" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F141" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3565,6 +4622,14 @@
       <c r="C142" s="9">
         <v>220000</v>
       </c>
+      <c r="D142" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E142" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F142" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3580,6 +4645,14 @@
       <c r="C143" s="9">
         <v>250000</v>
       </c>
+      <c r="D143" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E143" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F143" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3595,6 +4668,14 @@
       <c r="C144" s="9">
         <v>257000</v>
       </c>
+      <c r="D144" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E144" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F144" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3610,6 +4691,14 @@
       <c r="C145" s="9">
         <v>278000</v>
       </c>
+      <c r="D145" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E145" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F145" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3625,6 +4714,14 @@
       <c r="C146" s="9">
         <v>280000</v>
       </c>
+      <c r="D146" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E146" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F146" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3640,6 +4737,14 @@
       <c r="C147" s="9">
         <v>300000</v>
       </c>
+      <c r="D147" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E147" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F147" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3655,6 +4760,14 @@
       <c r="C148" s="9">
         <v>305000</v>
       </c>
+      <c r="D148" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E148" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F148" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3670,6 +4783,14 @@
       <c r="C149" s="9">
         <v>335000</v>
       </c>
+      <c r="D149" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E149" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F149" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3685,6 +4806,14 @@
       <c r="C150" s="9">
         <v>360000</v>
       </c>
+      <c r="D150" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E150" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F150" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3700,6 +4829,14 @@
       <c r="C151" s="9">
         <v>429000</v>
       </c>
+      <c r="D151" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E151" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F151" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3715,6 +4852,14 @@
       <c r="C152" s="9">
         <v>701000</v>
       </c>
+      <c r="D152" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E152" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F152" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3728,6 +4873,14 @@
         <v>24</v>
       </c>
       <c r="C153" s="10"/>
+      <c r="D153" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E153" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F153" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3743,6 +4896,14 @@
       <c r="C154" s="9">
         <v>90000</v>
       </c>
+      <c r="D154" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E154" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F154" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3758,6 +4919,14 @@
       <c r="C155" s="9">
         <v>69000</v>
       </c>
+      <c r="D155" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E155" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F155" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3773,6 +4942,14 @@
       <c r="C156" s="9">
         <v>89000</v>
       </c>
+      <c r="D156" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E156" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F156" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3788,6 +4965,14 @@
       <c r="C157" s="9">
         <v>138000</v>
       </c>
+      <c r="D157" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E157" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F157" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3803,6 +4988,14 @@
       <c r="C158" s="9">
         <v>196000</v>
       </c>
+      <c r="D158" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E158" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F158" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3818,6 +5011,14 @@
       <c r="C159" s="9">
         <v>329000</v>
       </c>
+      <c r="D159" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E159" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F159" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3833,6 +5034,14 @@
       <c r="C160" s="9">
         <v>295000</v>
       </c>
+      <c r="D160" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E160" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F160" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3848,6 +5057,14 @@
       <c r="C161" s="9">
         <v>19000</v>
       </c>
+      <c r="D161" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E161" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F161" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3863,6 +5080,14 @@
       <c r="C162" s="9">
         <v>26000</v>
       </c>
+      <c r="D162" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E162" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F162" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3878,6 +5103,14 @@
       <c r="C163" s="9">
         <v>28000</v>
       </c>
+      <c r="D163" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E163" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F163" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3893,6 +5126,14 @@
       <c r="C164" s="9">
         <v>56000</v>
       </c>
+      <c r="D164" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E164" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F164" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3908,8 +5149,12 @@
       <c r="C165" s="10">
         <v>0</v>
       </c>
-      <c r="E165" s="27">
-        <f>C165*$I$2</f>
+      <c r="D165" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E165" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>0</v>
       </c>
       <c r="F165" s="7" t="b">
@@ -3927,6 +5172,14 @@
       <c r="C166" s="9">
         <v>216000</v>
       </c>
+      <c r="D166" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E166" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F166" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3942,6 +5195,14 @@
       <c r="C167" s="9">
         <v>250000</v>
       </c>
+      <c r="D167" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E167" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F167" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3957,6 +5218,14 @@
       <c r="C168" s="9">
         <v>382000</v>
       </c>
+      <c r="D168" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E168" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F168" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3972,6 +5241,14 @@
       <c r="C169" s="10">
         <v>524000</v>
       </c>
+      <c r="D169" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E169" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F169" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3987,8 +5264,12 @@
       <c r="C170" s="9">
         <v>757000</v>
       </c>
-      <c r="E170" s="27">
-        <f>C170*$I$2</f>
+      <c r="D170" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E170" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>151400</v>
       </c>
       <c r="F170" s="7" t="b">
@@ -4006,6 +5287,14 @@
       <c r="C171" s="9">
         <v>1045000</v>
       </c>
+      <c r="D171" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E171" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F171" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4021,6 +5310,14 @@
       <c r="C172" s="10">
         <v>1568000</v>
       </c>
+      <c r="D172" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E172" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F172" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4036,6 +5333,14 @@
       <c r="C173" s="9">
         <v>117000</v>
       </c>
+      <c r="D173" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E173" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F173" s="7" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -4051,6 +5356,14 @@
       <c r="C174" s="9">
         <v>158000</v>
       </c>
+      <c r="D174" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E174" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F174" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4066,6 +5379,14 @@
       <c r="C175" s="9">
         <v>260000</v>
       </c>
+      <c r="D175" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E175" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F175" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4081,6 +5402,14 @@
       <c r="C176" s="9">
         <v>193000</v>
       </c>
+      <c r="D176" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E176" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F176" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4096,6 +5425,14 @@
       <c r="C177" s="9">
         <v>270000</v>
       </c>
+      <c r="D177" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E177" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F177" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4111,6 +5448,14 @@
       <c r="C178" s="9">
         <v>314000</v>
       </c>
+      <c r="D178" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E178" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F178" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4126,6 +5471,14 @@
       <c r="C179" s="9">
         <v>894000</v>
       </c>
+      <c r="D179" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E179" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F179" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4141,8 +5494,13 @@
       <c r="C180" s="9">
         <v>1040000</v>
       </c>
-      <c r="D180" s="7" t="s">
-        <v>202</v>
+      <c r="D180" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E180" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F180" s="7" t="b">
         <f t="shared" si="2"/>
@@ -4159,6 +5517,14 @@
       <c r="C181" s="9">
         <v>8000</v>
       </c>
+      <c r="D181" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E181" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F181" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4174,6 +5540,14 @@
       <c r="C182" s="9">
         <v>10000</v>
       </c>
+      <c r="D182" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E182" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F182" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4189,6 +5563,14 @@
       <c r="C183" s="9">
         <v>24000</v>
       </c>
+      <c r="D183" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E183" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F183" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4204,6 +5586,14 @@
       <c r="C184" s="9">
         <v>11000</v>
       </c>
+      <c r="D184" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E184" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F184" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4219,6 +5609,14 @@
       <c r="C185" s="9">
         <v>10000</v>
       </c>
+      <c r="D185" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E185" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F185" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4234,6 +5632,14 @@
       <c r="C186" s="9">
         <v>26000</v>
       </c>
+      <c r="D186" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E186" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F186" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4247,6 +5653,14 @@
         <v>38</v>
       </c>
       <c r="C187" s="10"/>
+      <c r="D187" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E187" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F187" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4262,6 +5676,14 @@
       <c r="C188" s="9">
         <v>22000</v>
       </c>
+      <c r="D188" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E188" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F188" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4277,6 +5699,14 @@
       <c r="C189" s="9">
         <v>63000</v>
       </c>
+      <c r="D189" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E189" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F189" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4292,6 +5722,14 @@
       <c r="C190" s="9">
         <v>63000</v>
       </c>
+      <c r="D190" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E190" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F190" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4307,6 +5745,14 @@
       <c r="C191" s="9">
         <v>26000</v>
       </c>
+      <c r="D191" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E191" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F191" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4322,6 +5768,14 @@
       <c r="C192" s="9">
         <v>25000</v>
       </c>
+      <c r="D192" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E192" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F192" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4337,6 +5791,14 @@
       <c r="C193" s="9">
         <v>25000</v>
       </c>
+      <c r="D193" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E193" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F193" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4352,6 +5814,14 @@
       <c r="C194" s="9">
         <v>46000</v>
       </c>
+      <c r="D194" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E194" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F194" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4365,6 +5835,14 @@
         <v>10</v>
       </c>
       <c r="C195" s="10"/>
+      <c r="D195" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E195" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F195" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4380,6 +5858,14 @@
       <c r="C196" s="9">
         <v>37000</v>
       </c>
+      <c r="D196" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E196" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F196" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4395,6 +5881,14 @@
       <c r="C197" s="9">
         <v>37000</v>
       </c>
+      <c r="D197" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E197" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F197" s="7" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4410,6 +5904,14 @@
       <c r="C198" s="9">
         <v>11000</v>
       </c>
+      <c r="D198" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E198" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F198" s="7" t="b">
         <f t="shared" ref="F198:F261" si="3">AND(B198="MANUALI",C198&lt;1000000)</f>
         <v>0</v>
@@ -4425,6 +5927,14 @@
       <c r="C199" s="9">
         <v>46000</v>
       </c>
+      <c r="D199" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E199" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F199" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4440,6 +5950,14 @@
       <c r="C200" s="9">
         <v>19000</v>
       </c>
+      <c r="D200" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E200" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F200" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4455,6 +5973,14 @@
       <c r="C201" s="9">
         <v>13000</v>
       </c>
+      <c r="D201" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E201" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F201" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4470,6 +5996,14 @@
       <c r="C202" s="9">
         <v>26000</v>
       </c>
+      <c r="D202" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E202" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F202" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4485,6 +6019,14 @@
       <c r="C203" s="9">
         <v>26000</v>
       </c>
+      <c r="D203" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E203" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F203" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4500,6 +6042,14 @@
       <c r="C204" s="9">
         <v>20000</v>
       </c>
+      <c r="D204" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E204" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F204" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4515,6 +6065,14 @@
       <c r="C205" s="9">
         <v>49000</v>
       </c>
+      <c r="D205" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E205" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F205" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4530,6 +6088,14 @@
       <c r="C206" s="9">
         <v>33000</v>
       </c>
+      <c r="D206" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E206" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F206" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4545,6 +6111,14 @@
       <c r="C207" s="9">
         <v>68000</v>
       </c>
+      <c r="D207" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E207" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F207" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4560,6 +6134,14 @@
       <c r="C208" s="9">
         <v>33000</v>
       </c>
+      <c r="D208" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E208" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F208" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4575,6 +6157,14 @@
       <c r="C209" s="9">
         <v>147000</v>
       </c>
+      <c r="D209" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E209" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F209" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4590,6 +6180,14 @@
       <c r="C210" s="9">
         <v>151000</v>
       </c>
+      <c r="D210" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E210" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F210" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4605,6 +6203,14 @@
       <c r="C211" s="9">
         <v>197000</v>
       </c>
+      <c r="D211" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E211" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F211" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4620,6 +6226,14 @@
       <c r="C212" s="9">
         <v>310000</v>
       </c>
+      <c r="D212" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E212" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F212" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4635,6 +6249,14 @@
       <c r="C213" s="9">
         <v>271000</v>
       </c>
+      <c r="D213" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E213" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F213" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4650,8 +6272,13 @@
       <c r="C214" s="9">
         <v>458000</v>
       </c>
-      <c r="D214" s="7" t="s">
-        <v>202</v>
+      <c r="D214" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E214" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F214" s="7" t="b">
         <f t="shared" si="3"/>
@@ -4668,8 +6295,13 @@
       <c r="C215" s="9">
         <v>412000</v>
       </c>
-      <c r="D215" s="7" t="s">
-        <v>202</v>
+      <c r="D215" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E215" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F215" s="7" t="b">
         <f t="shared" si="3"/>
@@ -4686,8 +6318,13 @@
       <c r="C216" s="9">
         <v>807000</v>
       </c>
-      <c r="D216" s="7" t="s">
-        <v>202</v>
+      <c r="D216" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E216" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F216" s="7" t="b">
         <f t="shared" si="3"/>
@@ -4704,6 +6341,14 @@
       <c r="C217" s="9">
         <v>4000</v>
       </c>
+      <c r="D217" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E217" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F217" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4719,6 +6364,14 @@
       <c r="C218" s="9">
         <v>81000</v>
       </c>
+      <c r="D218" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E218" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F218" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4734,6 +6387,14 @@
       <c r="C219" s="9">
         <v>125000</v>
       </c>
+      <c r="D219" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E219" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F219" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4749,6 +6410,14 @@
       <c r="C220" s="9">
         <v>98000</v>
       </c>
+      <c r="D220" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E220" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F220" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4764,6 +6433,14 @@
       <c r="C221" s="9">
         <v>140000</v>
       </c>
+      <c r="D221" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E221" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F221" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4779,6 +6456,14 @@
       <c r="C222" s="9">
         <v>5000</v>
       </c>
+      <c r="D222" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E222" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F222" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4794,6 +6479,14 @@
       <c r="C223" s="9">
         <v>6000</v>
       </c>
+      <c r="D223" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E223" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F223" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4809,6 +6502,14 @@
       <c r="C224" s="9">
         <v>9000</v>
       </c>
+      <c r="D224" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E224" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F224" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4824,6 +6525,14 @@
       <c r="C225" s="9">
         <v>8000</v>
       </c>
+      <c r="D225" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E225" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F225" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4839,6 +6548,14 @@
       <c r="C226" s="9">
         <v>11000</v>
       </c>
+      <c r="D226" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E226" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F226" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4854,6 +6571,14 @@
       <c r="C227" s="9">
         <v>21000</v>
       </c>
+      <c r="D227" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E227" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F227" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4869,6 +6594,14 @@
       <c r="C228" s="9">
         <v>14000</v>
       </c>
+      <c r="D228" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E228" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F228" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4884,6 +6617,14 @@
       <c r="C229" s="9">
         <v>23000</v>
       </c>
+      <c r="D229" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E229" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F229" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4899,6 +6640,14 @@
       <c r="C230" s="9">
         <v>51000</v>
       </c>
+      <c r="D230" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E230" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F230" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4912,6 +6661,14 @@
         <v>38</v>
       </c>
       <c r="C231" s="10"/>
+      <c r="D231" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E231" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F231" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4927,6 +6684,14 @@
       <c r="C232" s="9">
         <v>198000</v>
       </c>
+      <c r="D232" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E232" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F232" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4942,6 +6707,14 @@
       <c r="C233" s="9">
         <v>167000</v>
       </c>
+      <c r="D233" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E233" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F233" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4957,6 +6730,14 @@
       <c r="C234" s="9">
         <v>95000</v>
       </c>
+      <c r="D234" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E234" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F234" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4972,6 +6753,14 @@
       <c r="C235" s="9">
         <v>141000</v>
       </c>
+      <c r="D235" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E235" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F235" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4987,6 +6776,14 @@
       <c r="C236" s="9">
         <v>351000</v>
       </c>
+      <c r="D236" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E236" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F236" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5002,8 +6799,13 @@
       <c r="C237" s="9">
         <v>414000</v>
       </c>
-      <c r="D237" s="7" t="s">
-        <v>202</v>
+      <c r="D237" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E237" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F237" s="7" t="b">
         <f t="shared" si="3"/>
@@ -5020,6 +6822,14 @@
       <c r="C238" s="9">
         <v>61000</v>
       </c>
+      <c r="D238" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E238" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F238" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5035,6 +6845,14 @@
       <c r="C239" s="9">
         <v>893000</v>
       </c>
+      <c r="D239" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E239" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F239" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5050,6 +6868,14 @@
       <c r="C240" s="9">
         <v>985000</v>
       </c>
+      <c r="D240" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E240" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F240" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5065,6 +6891,14 @@
       <c r="C241" s="9">
         <v>296000</v>
       </c>
+      <c r="D241" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E241" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F241" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5080,8 +6914,13 @@
       <c r="C242" s="9">
         <v>685000</v>
       </c>
-      <c r="D242" s="7" t="s">
-        <v>202</v>
+      <c r="D242" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E242" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F242" s="7" t="b">
         <f t="shared" si="3"/>
@@ -5098,8 +6937,13 @@
       <c r="C243" s="9">
         <v>1138000</v>
       </c>
-      <c r="D243" s="7" t="s">
-        <v>202</v>
+      <c r="D243" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E243" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F243" s="7" t="b">
         <f t="shared" si="3"/>
@@ -5116,8 +6960,12 @@
       <c r="C244" s="9">
         <v>1334000</v>
       </c>
-      <c r="E244" s="27">
-        <f>C244*$I$2</f>
+      <c r="D244" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E244" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>266800</v>
       </c>
       <c r="F244" s="7" t="b">
@@ -5135,6 +6983,14 @@
       <c r="C245" s="9">
         <v>30000</v>
       </c>
+      <c r="D245" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E245" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F245" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5150,6 +7006,14 @@
       <c r="C246" s="9">
         <v>30000</v>
       </c>
+      <c r="D246" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E246" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F246" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5165,6 +7029,14 @@
       <c r="C247" s="9">
         <v>406000</v>
       </c>
+      <c r="D247" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E247" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F247" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5180,6 +7052,14 @@
       <c r="C248" s="10">
         <v>197000</v>
       </c>
+      <c r="D248" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E248" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F248" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5195,8 +7075,12 @@
       <c r="C249" s="9">
         <v>645000</v>
       </c>
-      <c r="E249" s="27">
-        <f>C249*$I$2</f>
+      <c r="D249" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E249" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>129000</v>
       </c>
       <c r="F249" s="7" t="b">
@@ -5214,6 +7098,14 @@
       <c r="C250" s="9">
         <v>645000</v>
       </c>
+      <c r="D250" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E250" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F250" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5229,6 +7121,14 @@
       <c r="C251" s="10">
         <v>259000</v>
       </c>
+      <c r="D251" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E251" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F251" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5244,6 +7144,14 @@
       <c r="C252" s="9">
         <v>646000</v>
       </c>
+      <c r="D252" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E252" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F252" s="7" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5259,6 +7167,14 @@
       <c r="C253" s="9">
         <v>259000</v>
       </c>
+      <c r="D253" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E253" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F253" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5274,6 +7190,14 @@
       <c r="C254" s="9">
         <v>645000</v>
       </c>
+      <c r="D254" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E254" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F254" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5289,6 +7213,14 @@
       <c r="C255" s="9">
         <v>879000</v>
       </c>
+      <c r="D255" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E255" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F255" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5304,6 +7236,14 @@
       <c r="C256" s="9">
         <v>259000</v>
       </c>
+      <c r="D256" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E256" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F256" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5319,6 +7259,14 @@
       <c r="C257" s="9">
         <v>274000</v>
       </c>
+      <c r="D257" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E257" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F257" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5334,6 +7282,14 @@
       <c r="C258" s="9">
         <v>975000</v>
       </c>
+      <c r="D258" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E258" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F258" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5349,8 +7305,13 @@
       <c r="C259" s="9">
         <v>480000</v>
       </c>
-      <c r="D259" s="7" t="s">
-        <v>202</v>
+      <c r="D259" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E259" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F259" s="7" t="b">
         <f t="shared" si="3"/>
@@ -5367,6 +7328,14 @@
       <c r="C260" s="9">
         <v>1187000</v>
       </c>
+      <c r="D260" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E260" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F260" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5382,6 +7351,14 @@
       <c r="C261" s="9">
         <v>832000</v>
       </c>
+      <c r="D261" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E261" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F261" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5397,6 +7374,14 @@
       <c r="C262" s="9">
         <v>227000</v>
       </c>
+      <c r="D262" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E262" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F262" s="7" t="b">
         <f t="shared" ref="F262:F325" si="4">AND(B262="MANUALI",C262&lt;1000000)</f>
         <v>0</v>
@@ -5412,6 +7397,14 @@
       <c r="C263" s="9">
         <v>98000</v>
       </c>
+      <c r="D263" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E263" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F263" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5427,6 +7420,14 @@
       <c r="C264" s="9">
         <v>1190000</v>
       </c>
+      <c r="D264" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E264" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F264" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5442,6 +7443,14 @@
       <c r="C265" s="9">
         <v>300000</v>
       </c>
+      <c r="D265" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E265" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F265" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5457,6 +7466,14 @@
       <c r="C266" s="9">
         <v>2407000</v>
       </c>
+      <c r="D266" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E266" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F266" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5472,6 +7489,14 @@
       <c r="C267" s="9">
         <v>1021000</v>
       </c>
+      <c r="D267" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E267" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F267" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5487,6 +7512,14 @@
       <c r="C268" s="9">
         <v>646000</v>
       </c>
+      <c r="D268" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E268" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F268" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5502,6 +7535,14 @@
       <c r="C269" s="9">
         <v>259000</v>
       </c>
+      <c r="D269" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E269" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F269" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5517,6 +7558,14 @@
       <c r="C270" s="9">
         <v>193000</v>
       </c>
+      <c r="D270" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E270" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F270" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5532,6 +7581,14 @@
       <c r="C271" s="9">
         <v>96000</v>
       </c>
+      <c r="D271" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E271" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F271" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5547,6 +7604,14 @@
       <c r="C272" s="9">
         <v>594000</v>
       </c>
+      <c r="D272" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E272" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F272" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5562,6 +7627,14 @@
       <c r="C273" s="9">
         <v>282000</v>
       </c>
+      <c r="D273" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E273" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F273" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5577,6 +7650,14 @@
       <c r="C274" s="9">
         <v>1814000</v>
       </c>
+      <c r="D274" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E274" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F274" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5592,6 +7673,14 @@
       <c r="C275" s="9">
         <v>193000</v>
       </c>
+      <c r="D275" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E275" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F275" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5607,6 +7696,14 @@
       <c r="C276" s="9">
         <v>654000</v>
       </c>
+      <c r="D276" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E276" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F276" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5622,6 +7719,14 @@
       <c r="C277" s="9">
         <v>729000</v>
       </c>
+      <c r="D277" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E277" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F277" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5637,6 +7742,14 @@
       <c r="C278" s="9">
         <v>632000</v>
       </c>
+      <c r="D278" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E278" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F278" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5652,6 +7765,14 @@
       <c r="C279" s="9">
         <v>240000</v>
       </c>
+      <c r="D279" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E279" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F279" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5667,6 +7788,14 @@
       <c r="C280" s="9">
         <v>955000</v>
       </c>
+      <c r="D280" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E280" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F280" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5682,6 +7811,14 @@
       <c r="C281" s="9">
         <v>1126000</v>
       </c>
+      <c r="D281" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E281" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F281" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5695,6 +7832,14 @@
         <v>58</v>
       </c>
       <c r="C282" s="10"/>
+      <c r="D282" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E282" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F282" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5710,6 +7855,14 @@
       <c r="C283" s="9">
         <v>297000</v>
       </c>
+      <c r="D283" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E283" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F283" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5725,6 +7878,14 @@
       <c r="C284" s="9">
         <v>646000</v>
       </c>
+      <c r="D284" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E284" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F284" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5740,6 +7901,14 @@
       <c r="C285" s="9">
         <v>714000</v>
       </c>
+      <c r="D285" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E285" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F285" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5755,6 +7924,14 @@
       <c r="C286" s="9">
         <v>807000</v>
       </c>
+      <c r="D286" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E286" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F286" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5770,6 +7947,14 @@
       <c r="C287" s="9">
         <v>591000</v>
       </c>
+      <c r="D287" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E287" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F287" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5785,6 +7970,14 @@
       <c r="C288" s="9">
         <v>918000</v>
       </c>
+      <c r="D288" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E288" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F288" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5800,6 +7993,14 @@
       <c r="C289" s="9">
         <v>1265000</v>
       </c>
+      <c r="D289" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E289" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F289" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5815,6 +8016,14 @@
       <c r="C290" s="9">
         <v>256000</v>
       </c>
+      <c r="D290" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E290" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F290" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5830,6 +8039,14 @@
       <c r="C291" s="9">
         <v>371000</v>
       </c>
+      <c r="D291" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E291" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F291" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5845,6 +8062,14 @@
       <c r="C292" s="9">
         <v>457000</v>
       </c>
+      <c r="D292" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E292" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F292" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5860,8 +8085,13 @@
       <c r="C293" s="9">
         <v>642000</v>
       </c>
-      <c r="D293" s="7" t="s">
-        <v>202</v>
+      <c r="D293" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E293" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F293" s="7" t="b">
         <f t="shared" si="4"/>
@@ -5878,8 +8108,13 @@
       <c r="C294" s="9">
         <v>1571000</v>
       </c>
-      <c r="D294" s="7" t="s">
-        <v>202</v>
+      <c r="D294" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E294" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F294" s="7" t="b">
         <f t="shared" si="4"/>
@@ -5896,8 +8131,13 @@
       <c r="C295" s="9">
         <v>756000</v>
       </c>
-      <c r="D295" s="7" t="s">
-        <v>202</v>
+      <c r="D295" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E295" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F295" s="7" t="b">
         <f t="shared" si="4"/>
@@ -5914,6 +8154,14 @@
       <c r="C296" s="9">
         <v>1571000</v>
       </c>
+      <c r="D296" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E296" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F296" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5929,6 +8177,14 @@
       <c r="C297" s="9">
         <v>2716000</v>
       </c>
+      <c r="D297" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E297" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F297" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5944,6 +8200,14 @@
       <c r="C298" s="9">
         <v>640000</v>
       </c>
+      <c r="D298" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E298" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F298" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5959,6 +8223,14 @@
       <c r="C299" s="9">
         <v>255000</v>
       </c>
+      <c r="D299" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E299" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F299" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5974,8 +8246,13 @@
       <c r="C300" s="9">
         <v>413000</v>
       </c>
-      <c r="D300" s="7" t="s">
-        <v>202</v>
+      <c r="D300" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E300" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F300" s="7" t="b">
         <f t="shared" si="4"/>
@@ -5992,6 +8269,14 @@
       <c r="C301" s="9">
         <v>361000</v>
       </c>
+      <c r="D301" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E301" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F301" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6007,6 +8292,14 @@
       <c r="C302" s="9">
         <v>544000</v>
       </c>
+      <c r="D302" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E302" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F302" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6022,6 +8315,14 @@
       <c r="C303" s="9">
         <v>678000</v>
       </c>
+      <c r="D303" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E303" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F303" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6037,6 +8338,14 @@
       <c r="C304" s="9">
         <v>1054000</v>
       </c>
+      <c r="D304" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E304" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F304" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6052,6 +8361,14 @@
       <c r="C305" s="9">
         <v>482000</v>
       </c>
+      <c r="D305" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E305" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F305" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6067,6 +8384,14 @@
       <c r="C306" s="9">
         <v>722000</v>
       </c>
+      <c r="D306" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E306" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F306" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6082,6 +8407,14 @@
       <c r="C307" s="9">
         <v>269000</v>
       </c>
+      <c r="D307" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E307" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F307" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6097,6 +8430,14 @@
       <c r="C308" s="9">
         <v>371000</v>
       </c>
+      <c r="D308" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E308" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F308" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6112,6 +8453,14 @@
       <c r="C309" s="9">
         <v>462000</v>
       </c>
+      <c r="D309" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E309" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F309" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6127,6 +8476,14 @@
       <c r="C310" s="9">
         <v>541000</v>
       </c>
+      <c r="D310" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E310" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F310" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6142,6 +8499,14 @@
       <c r="C311" s="9">
         <v>648000</v>
       </c>
+      <c r="D311" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E311" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F311" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6157,6 +8522,14 @@
       <c r="C312" s="9">
         <v>644000</v>
       </c>
+      <c r="D312" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E312" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F312" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6172,6 +8545,14 @@
       <c r="C313" s="9">
         <v>902000</v>
       </c>
+      <c r="D313" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E313" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F313" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6187,6 +8568,14 @@
       <c r="C314" s="9">
         <v>722000</v>
       </c>
+      <c r="D314" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E314" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F314" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6202,6 +8591,14 @@
       <c r="C315" s="9">
         <v>1457000</v>
       </c>
+      <c r="D315" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E315" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F315" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6217,8 +8614,13 @@
       <c r="C316" s="9">
         <v>1786000</v>
       </c>
-      <c r="D316" s="7" t="s">
-        <v>202</v>
+      <c r="D316" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E316" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F316" s="7" t="b">
         <f t="shared" si="4"/>
@@ -6233,6 +8635,14 @@
         <v>22</v>
       </c>
       <c r="C317" s="10"/>
+      <c r="D317" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E317" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F317" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6248,6 +8658,14 @@
       <c r="C318" s="9">
         <v>85000</v>
       </c>
+      <c r="D318" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E318" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F318" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6263,6 +8681,14 @@
       <c r="C319" s="9">
         <v>84000</v>
       </c>
+      <c r="D319" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E319" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F319" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6278,6 +8704,14 @@
       <c r="C320" s="9">
         <v>115000</v>
       </c>
+      <c r="D320" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E320" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F320" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6293,6 +8727,14 @@
       <c r="C321" s="9">
         <v>152000</v>
       </c>
+      <c r="D321" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E321" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F321" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6308,6 +8750,14 @@
       <c r="C322" s="9">
         <v>82000</v>
       </c>
+      <c r="D322" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E322" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F322" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6323,8 +8773,12 @@
       <c r="C323" s="9">
         <v>84000</v>
       </c>
-      <c r="E323" s="27">
-        <f>C323*$I$2</f>
+      <c r="D323" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E323" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>16800</v>
       </c>
       <c r="F323" s="7" t="b">
@@ -6342,6 +8796,14 @@
       <c r="C324" s="9">
         <v>115000</v>
       </c>
+      <c r="D324" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E324" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F324" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6357,6 +8819,14 @@
       <c r="C325" s="9">
         <v>153000</v>
       </c>
+      <c r="D325" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E325" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F325" s="7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6372,6 +8842,14 @@
       <c r="C326" s="9">
         <v>80000</v>
       </c>
+      <c r="D326" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E326" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F326" s="7" t="b">
         <f t="shared" ref="F326:F340" si="5">AND(B326="MANUALI",C326&lt;1000000)</f>
         <v>0</v>
@@ -6387,6 +8865,14 @@
       <c r="C327" s="10">
         <v>102000</v>
       </c>
+      <c r="D327" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E327" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F327" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6402,8 +8888,12 @@
       <c r="C328" s="10">
         <v>0</v>
       </c>
-      <c r="E328" s="27">
-        <f>C328*$I$2</f>
+      <c r="D328" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E328" s="36">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
         <v>0</v>
       </c>
       <c r="F328" s="7" t="b">
@@ -6421,6 +8911,14 @@
       <c r="C329" s="9">
         <v>198000</v>
       </c>
+      <c r="D329" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E329" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F329" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6436,6 +8934,14 @@
       <c r="C330" s="10">
         <v>233000</v>
       </c>
+      <c r="D330" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E330" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F330" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6451,6 +8957,14 @@
       <c r="C331" s="9">
         <v>279000</v>
       </c>
+      <c r="D331" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E331" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F331" s="7" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6466,6 +8980,14 @@
       <c r="C332" s="9">
         <v>298000</v>
       </c>
+      <c r="D332" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E332" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F332" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6481,6 +9003,14 @@
       <c r="C333" s="9">
         <v>478000</v>
       </c>
+      <c r="D333" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E333" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F333" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6496,6 +9026,14 @@
       <c r="C334" s="9">
         <v>626000</v>
       </c>
+      <c r="D334" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E334" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F334" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6511,6 +9049,14 @@
       <c r="C335" s="9">
         <v>757000</v>
       </c>
+      <c r="D335" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E335" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F335" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6526,6 +9072,14 @@
       <c r="C336" s="9">
         <v>1128000</v>
       </c>
+      <c r="D336" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E336" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F336" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6541,6 +9095,14 @@
       <c r="C337" s="9">
         <v>1527000</v>
       </c>
+      <c r="D337" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E337" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F337" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6556,8 +9118,13 @@
       <c r="C338" s="9">
         <v>4134000</v>
       </c>
-      <c r="D338" s="7" t="s">
-        <v>202</v>
+      <c r="D338" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v>TROVATO</v>
+      </c>
+      <c r="E338" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
       </c>
       <c r="F338" s="7" t="b">
         <f t="shared" si="5"/>
@@ -6574,6 +9141,14 @@
       <c r="C339" s="9">
         <v>6850000</v>
       </c>
+      <c r="D339" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E339" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F339" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6589,19 +9164,28 @@
       <c r="C340" s="9">
         <v>11712000</v>
       </c>
+      <c r="D340" s="7" t="str">
+        <f>IF(AND(categoria="Abbigliamento",impo&gt;300000),"TROVATO","")</f>
+        <v/>
+      </c>
+      <c r="E340" s="36" t="str">
+        <f>IF(clienti="HHB",impo*IVA,"")</f>
+        <v/>
+      </c>
       <c r="F340" s="7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:F340" xr:uid="{B64CFBE5-9F9D-4F9A-8F99-5524B5637A72}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A4:G342">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ufficio">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ufficio">
       <formula>NOT(ISERROR(SEARCH("ufficio",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6615,8 +9199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8093,8 +10677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBD8C3F-135D-4280-BD95-8C23E6C981DD}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8146,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="24">
-        <f>IF(AND(B2&gt;10,B2&lt;100),1,0)</f>
+        <f>IF(AND(B2&gt;=10,B2&lt;=100),1,0)</f>
         <v>0</v>
       </c>
       <c r="F2" s="23">
@@ -8174,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="24">
-        <f t="shared" ref="E3:E66" si="2">IF(AND(B3&gt;10,B3&lt;100),1,0)</f>
+        <f t="shared" ref="E3:E66" si="2">IF(AND(B3&gt;=10,B3&lt;=100),1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8220,8 +10804,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="37">
-        <f>SUM(C2:C110)</f>
+      <c r="F5">
+        <f>COUNTIF(A:B, "&gt;100")</f>
         <v>11</v>
       </c>
     </row>
@@ -8268,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f>SUM(D:D)</f>
+        <f>COUNTIF(A2:A110,"C*")</f>
         <v>12</v>
       </c>
     </row>
@@ -8315,8 +10899,8 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUM(E:E)</f>
-        <v>47</v>
+        <f>COUNTIFS(B:B,"&gt;=10",B:B,"&lt;=100")</f>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8362,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f>SUM(abitanti)</f>
+        <f>SUM(B:B)</f>
         <v>12564</v>
       </c>
     </row>
@@ -8383,7 +10967,7 @@
       </c>
       <c r="E12" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8583,7 +11167,7 @@
       </c>
       <c r="E22" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -8763,7 +11347,7 @@
       </c>
       <c r="E31" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -9083,7 +11667,7 @@
       </c>
       <c r="E47" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -9482,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="24">
-        <f t="shared" ref="E67:E110" si="5">IF(AND(B67&gt;10,B67&lt;100),1,0)</f>
+        <f t="shared" ref="E67:E110" si="5">IF(AND(B67&gt;=10,B67&lt;=100),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9683,7 +12267,7 @@
       </c>
       <c r="E77" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -9763,7 +12347,7 @@
       </c>
       <c r="E81" s="24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
